--- a/Assets/DataTable/ProductDataTable.xlsx
+++ b/Assets/DataTable/ProductDataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcbj1\Desktop\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD01C949-5B56-49EB-889F-36DC39CCF3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A8F365-F0D6-4E2D-9C7A-2B9E6BA16CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00093708-AE6C-4A54-80A8-1C4208CE031C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00093708-AE6C-4A54-80A8-1C4208CE031C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>ItemID</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>BlueBerry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoragePeriod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoragePeriod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 저장 기간</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1122,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6335F4D-6333-4BEC-B869-C3B1C6B3F47D}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,9 +1149,10 @@
     <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1174,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1184,8 +1200,11 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1207,8 +1226,11 @@
       <c r="G3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -1230,8 +1252,11 @@
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -1253,8 +1278,11 @@
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3001</v>
       </c>
@@ -1276,8 +1304,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3002</v>
       </c>
@@ -1299,8 +1330,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4001</v>
       </c>
@@ -1321,6 +1355,9 @@
       </c>
       <c r="G8">
         <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1334,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42CB8DE-E422-4476-AF11-1F6255DBB873}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,6 +1487,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
